--- a/metadata/wind_profile_metadata.xlsx
+++ b/metadata/wind_profile_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/temp_out/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD76207E-B8FC-1E43-AB84-430ACEB82AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDA549F-E3DB-2F4B-A440-84444E70A77A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39100" yWindow="-3140" windowWidth="26380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Conventions</t>
   </si>
   <si>
-    <t>CF-1.6, NCAS-AMF-1.0</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -154,12 +151,6 @@
     <t>location_keywords</t>
   </si>
   <si>
-    <t>amf_vocabularies_release</t>
-  </si>
-  <si>
-    <t>https://github.com/ncasuk/AMF_CVs/releases/tag/0.5.0</t>
-  </si>
-  <si>
     <t>history</t>
   </si>
   <si>
@@ -254,6 +245,9 @@
   </si>
   <si>
     <t>V1: pending-available on request, V2: pending-available on request, M1: 111117433, M2: 111117432</t>
+  </si>
+  <si>
+    <t>CF-1.6</t>
   </si>
 </sst>
 </file>
@@ -345,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -399,9 +393,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -690,10 +681,10 @@
   <dimension ref="A1:M1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -716,273 +707,273 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="16"/>
     </row>
     <row r="23" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="18"/>
     </row>
     <row r="35" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="18"/>
     </row>
     <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -998,46 +989,42 @@
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>45</v>
+      <c r="B39" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>73</v>
-      </c>
+      <c r="A41" s="10"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="6"/>
     </row>
     <row r="43" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1054,7 +1041,7 @@
     </row>
     <row r="46" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
@@ -1062,7 +1049,7 @@
     </row>
     <row r="48" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
@@ -1077,11 +1064,11 @@
       <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="10"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="6"/>
     </row>
     <row r="54" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1121,7 +1108,6 @@
       <c r="B62" s="6"/>
     </row>
     <row r="63" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3"/>
       <c r="B63" s="6"/>
     </row>
     <row r="64" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3941,18 +3927,15 @@
     <row r="1002" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1002" s="6"/>
     </row>
-    <row r="1003" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1003" s="6"/>
-    </row>
+    <row r="1003" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{B622B382-91FF-3849-9641-7706E8D580C9}"/>
     <hyperlink ref="B26" r:id="rId2" xr:uid="{7C3C3F96-E666-1E40-92DC-BACD1257DB73}"/>
     <hyperlink ref="B27" r:id="rId3" xr:uid="{438F3D83-17B9-9F49-918D-3493BAFBCA5E}"/>
     <hyperlink ref="B25" r:id="rId4" xr:uid="{92A7A168-42D0-6543-A0F1-E6953472C8BD}"/>
-    <hyperlink ref="B39" r:id="rId5" xr:uid="{5C43AB42-3513-F246-AA5E-6D7A7853D154}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/metadata/wind_profile_metadata.xlsx
+++ b/metadata/wind_profile_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDA549F-E3DB-2F4B-A440-84444E70A77A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2239192-F493-EE40-86B4-4B2DEFB60E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39100" yWindow="-3140" windowWidth="26380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,9 +220,6 @@
     <t>Summit Station</t>
   </si>
   <si>
-    <t>72.572962N, -38.470361E</t>
-  </si>
-  <si>
     <t>3267 m</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>CF-1.6</t>
+  </si>
+  <si>
+    <t>72.572962N -38.470361E</t>
   </si>
 </sst>
 </file>
@@ -684,7 +684,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39:B39"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -707,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -739,7 +739,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -747,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -755,7 +755,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -795,7 +795,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -945,7 +945,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -973,7 +973,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -992,7 +992,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1000,7 +1000,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1008,7 +1008,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1016,7 +1016,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/metadata/wind_profile_metadata.xlsx
+++ b/metadata/wind_profile_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2239192-F493-EE40-86B4-4B2DEFB60E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0520177-6427-4241-9B9F-B301C15AF572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39100" yWindow="-3140" windowWidth="26380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,9 +214,6 @@
     <t>https://orcid.org/0000-0003-4560-4812</t>
   </si>
   <si>
-    <t>Acknowledgement of the University of Leeds as the data provider is required whenever and wherever these data are used</t>
-  </si>
-  <si>
     <t>Summit Station</t>
   </si>
   <si>
@@ -248,13 +245,36 @@
   </si>
   <si>
     <t>72.572962N -38.470361E</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Acknowledgement of the following grants is required: NSFGE Grant Award number: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1801318, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NERC Grant Award number NE/S00906X/1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -305,6 +325,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -339,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -394,6 +426,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -684,7 +717,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -707,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -739,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -747,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -755,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -795,7 +828,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -908,12 +941,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>64</v>
+      <c r="B28" s="20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -921,7 +954,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -945,7 +978,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -973,7 +1006,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -992,7 +1025,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1000,7 +1033,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1008,7 +1041,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1016,7 +1049,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/metadata/wind_profile_metadata.xlsx
+++ b/metadata/wind_profile_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0520177-6427-4241-9B9F-B301C15AF572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3680A57-36D9-9442-A321-1BFB65589454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39100" yWindow="-3140" windowWidth="26380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>1 minute</t>
-  </si>
-  <si>
-    <t>10 Hz</t>
   </si>
   <si>
     <t>1</t>
@@ -717,7 +714,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -740,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -772,7 +769,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -780,7 +777,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -788,7 +785,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -828,7 +825,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -868,7 +865,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -892,7 +889,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -906,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -914,7 +911,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -922,7 +919,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -930,7 +927,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -946,7 +943,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -954,7 +951,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -978,7 +975,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1006,7 +1003,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1025,7 +1022,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1033,7 +1030,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1041,7 +1038,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1049,7 +1046,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/metadata/wind_profile_metadata.xlsx
+++ b/metadata/wind_profile_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3680A57-36D9-9442-A321-1BFB65589454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACC7DA5-EFE4-8041-B018-61E14F3E56EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39100" yWindow="-3140" windowWidth="26380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -187,12 +187,6 @@
     <t>As per manufacturers specifications</t>
   </si>
   <si>
-    <t>available on request</t>
-  </si>
-  <si>
-    <t>not applicable</t>
-  </si>
-  <si>
     <t>1 minute</t>
   </si>
   <si>
@@ -233,9 +227,6 @@
   </si>
   <si>
     <t>https://github.com/heatherguy/ace-ceda-master</t>
-  </si>
-  <si>
-    <t>V1: pending-available on request, V2: pending-available on request, M1: 111117433, M2: 111117432</t>
   </si>
   <si>
     <t>CF-1.6</t>
@@ -265,6 +256,18 @@
       </rPr>
       <t>NERC Grant Award number NE/S00906X/1</t>
     </r>
+  </si>
+  <si>
+    <t>V1: available on request, V2: available on request, M1: 111117433, M2: 111117432</t>
+  </si>
+  <si>
+    <t>uSonic-3: 4.65c, Ventus: N/a</t>
+  </si>
+  <si>
+    <t>uSonic-3: 2019-12-03; VentusX: 2019-12-06</t>
+  </si>
+  <si>
+    <t>https://github.com/heatherguy/ace-ceda-master/tree/master/calibration_certificates</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -424,6 +427,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -711,10 +715,10 @@
   <dimension ref="A1:M1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -737,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -769,23 +773,23 @@
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>68</v>
+      <c r="B7" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>68</v>
+      <c r="B8" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -825,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -849,15 +853,15 @@
         <v>17</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>56</v>
+      <c r="B17" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -865,7 +869,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -873,7 +877,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -889,7 +893,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -903,7 +907,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -911,7 +915,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -919,7 +923,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -927,7 +931,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -943,7 +947,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -951,7 +955,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -975,7 +979,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1003,7 +1007,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1022,7 +1026,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1030,7 +1034,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1038,7 +1042,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1046,7 +1050,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3964,8 +3968,9 @@
     <hyperlink ref="B26" r:id="rId2" xr:uid="{7C3C3F96-E666-1E40-92DC-BACD1257DB73}"/>
     <hyperlink ref="B27" r:id="rId3" xr:uid="{438F3D83-17B9-9F49-918D-3493BAFBCA5E}"/>
     <hyperlink ref="B25" r:id="rId4" xr:uid="{92A7A168-42D0-6543-A0F1-E6953472C8BD}"/>
+    <hyperlink ref="B17" r:id="rId5" xr:uid="{F02EC00B-50B8-C042-84BD-4CAC92CDA257}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/metadata/wind_profile_metadata.xlsx
+++ b/metadata/wind_profile_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACC7DA5-EFE4-8041-B018-61E14F3E56EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB287D10-6C67-2C44-A629-E7A06A7CB3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39100" yWindow="-3140" windowWidth="26380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>v1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeSeriesPoint </t>
   </si>
   <si>
     <t>ACE-tower: 2D sonic anemometers (V1, v2) and 3D sonic anemometers (M1, M2)</t>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>https://github.com/heatherguy/ace-ceda-master/tree/master/calibration_certificates</t>
+  </si>
+  <si>
+    <t>timeSeries</t>
   </si>
 </sst>
 </file>
@@ -718,7 +718,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -741,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -749,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -757,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -765,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -773,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -781,7 +781,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -789,7 +789,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -797,7 +797,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -805,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -813,7 +813,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -821,7 +821,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -829,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -845,7 +845,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -853,7 +853,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -861,7 +861,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -869,7 +869,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -877,7 +877,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -893,7 +893,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -907,7 +907,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -915,7 +915,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -923,7 +923,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -931,7 +931,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -947,7 +947,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -955,7 +955,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -979,15 +979,15 @@
         <v>36</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>46</v>
+      <c r="B33" s="15" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1007,7 +1007,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1026,7 +1026,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1034,7 +1034,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1042,7 +1042,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1050,7 +1050,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/metadata/wind_profile_metadata.xlsx
+++ b/metadata/wind_profile_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB287D10-6C67-2C44-A629-E7A06A7CB3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B0B760-1699-3849-8E16-A0E4AF56E3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39100" yWindow="-3140" windowWidth="26380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39100" yWindow="-10580" windowWidth="26380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global-attributes" sheetId="1" r:id="rId1"/>
@@ -214,13 +214,7 @@
     <t>Data collection start: 2019-06-01T00:00:00</t>
   </si>
   <si>
-    <t>Platform height (h0) is the top of the Met tower. Instrument height: M1=h0-12.3m, V1=h0-9.8m,M2=h0-4.5m, V2=h0-1m ,.</t>
-  </si>
-  <si>
     <t>N/a</t>
-  </si>
-  <si>
-    <t>Point measurements of temperature/ humidity from HMP155 sensors at four levels on the Summit Station met tower.</t>
   </si>
   <si>
     <t>https://github.com/heatherguy/ace-ceda-master</t>
@@ -268,6 +262,12 @@
   </si>
   <si>
     <t>timeSeries</t>
+  </si>
+  <si>
+    <t>Point measurements of wind speed / direction from 2D and 3D sonic anemometers on four levels on the Summit Station met tower.</t>
+  </si>
+  <si>
+    <t>Platform height (h0) is the top of the Met tower. Instrument height: M1=h0-12.3m, V1=h0-9.8m,V2=h0-4.5m, M2=h0-1m ,.</t>
   </si>
 </sst>
 </file>
@@ -718,7 +718,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -741,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -773,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -781,7 +781,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -789,7 +789,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -829,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -853,7 +853,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -861,7 +861,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -947,7 +947,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -979,7 +979,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -987,7 +987,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1007,7 +1007,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1050,7 +1050,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
